--- a/public/M1Database/order_items_info/2016/itemsInfo_Jul-Dec.xlsx
+++ b/public/M1Database/order_items_info/2016/itemsInfo_Jul-Dec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\hardly-normal\public\M1Database\order_items_info\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310FBD79-C73D-431C-9056-AFF88BF63CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40963B7-6C1F-42EF-885E-2055EF8DF77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8330" yWindow="6260" windowWidth="30930" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="6800" windowWidth="24110" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>Liverpool</t>
   </si>
   <si>
-    <t>Dryer (WM123)</t>
+    <t>Dryer (DR123)</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
